--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E8AD10-76D5-4EEB-9CF3-3557CE1D4D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37AB82-2097-4E7B-89CE-B8EF90EA90D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>functional scope, var declares functional scope variable</t>
+  </si>
+  <si>
+    <t>accepts function as an argument OR can return function , callback-hell</t>
+  </si>
+  <si>
+    <t>functions having access to the variables of the enclosing(outer) functions even after execution</t>
   </si>
 </sst>
 </file>
@@ -427,15 +433,15 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -504,7 +510,9 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D6" t="s">
         <v>45</v>
       </c>
@@ -513,7 +521,12 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37AB82-2097-4E7B-89CE-B8EF90EA90D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0C3F0-6562-4D1A-BA22-2B60F896161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>functions having access to the variables of the enclosing(outer) functions even after execution</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/Array/splice</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -541,7 +544,9 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0C3F0-6562-4D1A-BA22-2B60F896161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42664077-5E66-49F6-A616-68685655B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -436,15 +436,15 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="132" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -559,6 +559,9 @@
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42664077-5E66-49F6-A616-68685655B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4837286E-008C-4724-A293-2A425D419CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Category</t>
   </si>
@@ -133,9 +133,6 @@
     <t>functions</t>
   </si>
   <si>
-    <t>Mislanneous</t>
-  </si>
-  <si>
     <t>pararmeters and arguments</t>
   </si>
   <si>
@@ -173,6 +170,18 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Global_Objects/Array/splice</t>
+  </si>
+  <si>
+    <t>Excution context</t>
+  </si>
+  <si>
+    <t>global execution&gt;memory phase&gt;execution phase&gt;Functional context(if any)&gt;delete functional context</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>will return a promise</t>
   </si>
 </sst>
 </file>
@@ -434,16 +443,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="170" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -469,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -480,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -492,7 +501,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -500,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -514,10 +523,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -525,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -545,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -560,7 +569,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -570,7 +579,9 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -664,18 +675,18 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,18 +694,27 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4837286E-008C-4724-A293-2A425D419CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1448CBD0-90B1-4EAA-97A5-AC01B503DBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -181,7 +181,10 @@
     <t>miscellaneous</t>
   </si>
   <si>
-    <t>will return a promise</t>
+    <t xml:space="preserve">check out the code and github please </t>
+  </si>
+  <si>
+    <t>does not suspend the function exe. , return in .then can help to pass the value to next .then method</t>
   </si>
 </sst>
 </file>
@@ -445,8 +448,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="170" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,12 +585,20 @@
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1448CBD0-90B1-4EAA-97A5-AC01B503DBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F764D74-8D7A-4682-9D5D-2E05D2BA2A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>does not suspend the function exe. , return in .then can help to pass the value to next .then method</t>
+  </si>
+  <si>
+    <t>everything is object , __proto__ holds refference to prototype of an object, checkout gitub</t>
   </si>
 </sst>
 </file>
@@ -448,15 +451,15 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="91" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -613,7 +616,9 @@
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F764D74-8D7A-4682-9D5D-2E05D2BA2A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9231B478-08C9-436B-93DF-BD440734861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>everything is object , __proto__ holds refference to prototype of an object, checkout gitub</t>
+  </si>
+  <si>
+    <t>revisit</t>
+  </si>
+  <si>
+    <t>variable declaration are made undefined, function scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function defined as variable will always not have hoisting feature and will remain undefined </t>
   </si>
 </sst>
 </file>
@@ -451,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="91" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="153" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -551,6 +560,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -568,6 +580,9 @@
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -619,6 +634,9 @@
       <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -627,15 +645,25 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -644,13 +672,13 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -659,13 +687,13 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -674,13 +702,13 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -689,12 +717,12 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -705,7 +733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -716,12 +744,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9231B478-08C9-436B-93DF-BD440734861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B220D8-4782-4CBE-BA21-332DB105EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Category</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">function defined as variable will always not have hoisting feature and will remain undefined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">event propogation, event bubbling -event capturing </t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="153" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="153" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -670,7 +673,9 @@
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">

--- a/javascript.xlsx
+++ b/javascript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manji\OneDrive\Desktop\DEV\Javascript revisiting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B220D8-4782-4CBE-BA21-332DB105EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F55852D-AD82-4E74-8BFF-6B6B6C7436F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Category</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">event propogation, event bubbling -event capturing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all the callbacks which are coming from promises and mutation observer API will be placed in micro task queue </t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="153" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="99" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,6 +679,9 @@
       <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -760,6 +766,11 @@
       </c>
       <c r="B32" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
